--- a/ExcelLab-Covid.xlsx
+++ b/ExcelLab-Covid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/ExcelLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C676364-8D8F-8446-81E6-C34FBCCFE4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BCF952-F3F2-9943-B14D-2B710FB47676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37420" yWindow="460" windowWidth="24140" windowHeight="17040" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,10 +579,34 @@
       <c r="C11" s="3">
         <v>44102</v>
       </c>
+      <c r="D11">
+        <v>1454</v>
+      </c>
+      <c r="E11" s="4">
+        <v>722</v>
+      </c>
+      <c r="F11">
+        <v>2176</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>44103</v>
+      </c>
+      <c r="D12">
+        <v>2176</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-516</v>
+      </c>
+      <c r="F12">
+        <v>1660</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/ExcelLab-Covid.xlsx
+++ b/ExcelLab-Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/ExcelLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BCF952-F3F2-9943-B14D-2B710FB47676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC119B9-976F-9749-9E25-18C8F097C987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37420" yWindow="460" windowWidth="24140" windowHeight="17040" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
   </bookViews>
@@ -173,6 +173,1284 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#Previous cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-968E-944A-AF1F-7A20FEA5D9DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#Increase or decrease of cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-968E-944A-AF1F-7A20FEA5D9DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-968E-944A-AF1F-7A20FEA5D9DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#Deaths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$8:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-968E-944A-AF1F-7A20FEA5D9DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1434788303"/>
+        <c:axId val="1434784079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1434788303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1434784079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1434784079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1434788303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6784D4-B2E2-334B-B807-3D471C0757DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -470,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F7E316-CA0C-5A4F-9C36-F3F5E9E0CEE8}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +1902,13 @@
         <v>44106</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>44107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelLab-Covid.xlsx
+++ b/ExcelLab-Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/ExcelLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC119B9-976F-9749-9E25-18C8F097C987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3608B6FF-6829-2E40-B63F-C4026B90D061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37420" yWindow="460" windowWidth="24140" windowHeight="17040" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,6 +317,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,7 +1754,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,6 +1894,9 @@
       <c r="C13" s="3">
         <v>44104</v>
       </c>
+      <c r="D13">
+        <v>1660</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="3">

--- a/ExcelLab-Covid.xlsx
+++ b/ExcelLab-Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/ExcelLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3608B6FF-6829-2E40-B63F-C4026B90D061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A0632-EE71-2842-A6E3-DCA01553E3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
+    <workbookView xWindow="-29760" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,6 +426,9 @@
                 <c:pt idx="4">
                   <c:v>-516</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -531,6 +534,9 @@
                 <c:pt idx="4">
                   <c:v>1660</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1797</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -635,6 +641,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,7 +1763,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,6 +1906,15 @@
       <c r="D13">
         <v>1660</v>
       </c>
+      <c r="E13" s="4">
+        <v>137</v>
+      </c>
+      <c r="F13">
+        <v>1797</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="3">

--- a/ExcelLab-Covid.xlsx
+++ b/ExcelLab-Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/ExcelLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A0632-EE71-2842-A6E3-DCA01553E3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D3D98-468F-534A-BAA5-F8F4A1FC3117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29760" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18820" windowHeight="15300" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,6 +321,9 @@
                 <c:pt idx="5">
                   <c:v>1660</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1797</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -429,6 +432,9 @@
                 <c:pt idx="5">
                   <c:v>137</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -537,6 +543,9 @@
                 <c:pt idx="5">
                   <c:v>1797</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1777</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -644,6 +653,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F7E316-CA0C-5A4F-9C36-F3F5E9E0CEE8}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1920,6 +1932,18 @@
       <c r="C14" s="3">
         <v>44105</v>
       </c>
+      <c r="D14">
+        <v>1797</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-20</v>
+      </c>
+      <c r="F14">
+        <v>1777</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3">

--- a/ExcelLab-Covid.xlsx
+++ b/ExcelLab-Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/ExcelLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D3D98-468F-534A-BAA5-F8F4A1FC3117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE2249-42DD-A842-B7F3-2C0AD8B898C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18820" windowHeight="15300" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{2DB62F66-4D63-0744-B465-17CF4A6A55CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Covid-19 cases in the past week : Sep 25 - Oct 2 2020</t>
-  </si>
-  <si>
     <t>#Previous cases</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>#Deaths</t>
+  </si>
+  <si>
+    <t>Covid-19 cases in the past week : Sep 25 - Oct 1 2020</t>
   </si>
 </sst>
 </file>
@@ -288,12 +288,6 @@
                 <c:pt idx="6">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>44106</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44107</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -399,12 +393,6 @@
                 <c:pt idx="6">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>44106</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44107</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -510,12 +498,6 @@
                 <c:pt idx="6">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>44106</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44107</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -620,12 +602,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>44105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44106</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,6 +1448,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>202309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F495AD-71A5-E241-B22D-622F423EFD30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36540" y="7788442"/>
+          <a:ext cx="9784793" cy="2253025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>This graph and chart we can see the increase or decrease of Covid-19 cases throughout the last week. On top of that, we can also see the number of deaths by Covid-19 that occurred that day. As we can see, the sections  in green are the times where there was a decerease of cases and the sections in red show when there's an increase of cases. It is hard to reach a formal conclusion after this analysis because there is no way of predicting the next values we will get for the next day. Despite this fact, we know that the amount of cases decrease depending on the will of people to quarantine or not. Additonally, we can observe that after the mandatory quarantine there was a considerate decrease of Covid-19 cases the following day which was September 29th. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1774,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F7E316-CA0C-5A4F-9C36-F3F5E9E0CEE8}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1814,16 +1861,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1946,14 +1993,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="3">
-        <v>44106</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="3">
-        <v>44107</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
